--- a/Leaderboard.xlsx
+++ b/Leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepti\Desktop\Deepti\projectpersonal\leaderboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B266DE27-1AC1-426D-AF82-269AB72E2297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787A8B24-7124-44EC-9A37-566DC0BC85AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{730DF1DB-C3E8-4555-8E91-E2AF207B1844}"/>
   </bookViews>
@@ -694,7 +694,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,7 +762,7 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>

--- a/Leaderboard.xlsx
+++ b/Leaderboard.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepti\Desktop\Deepti\projectpersonal\leaderboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787A8B24-7124-44EC-9A37-566DC0BC85AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CB5E25D-A9E0-4307-BECC-B5033E0208D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{730DF1DB-C3E8-4555-8E91-E2AF207B1844}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E312E4D-B331-491F-9DB8-B3982B9B947D}"/>
   </bookViews>
   <sheets>
-    <sheet name="attendance" sheetId="2" r:id="rId1"/>
-    <sheet name="users" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,118 +34,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Bhakti</t>
+  </si>
+  <si>
+    <t>Deepti</t>
+  </si>
+  <si>
     <t>Rakshita</t>
   </si>
   <si>
     <t>Siddharth</t>
   </si>
   <si>
-    <t>Deepti</t>
+    <t>Tanvi</t>
   </si>
   <si>
     <t>Komal</t>
   </si>
   <si>
-    <t>Bhakti</t>
-  </si>
-  <si>
     <t>Rimjhim</t>
   </si>
   <si>
-    <t>23-062025</t>
-  </si>
-  <si>
-    <t>29-062025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Present </t>
-  </si>
-  <si>
-    <t>Absent</t>
-  </si>
-  <si>
-    <t>present</t>
-  </si>
-  <si>
-    <t>Present</t>
+    <t>Yash</t>
+  </si>
+  <si>
+    <t>Rajveer</t>
+  </si>
+  <si>
+    <t>Aditi</t>
+  </si>
+  <si>
+    <t>Anushka</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>bhaktishinde@gmail.com</t>
-  </si>
-  <si>
-    <t>dhanwatedeepti2@gmail.com</t>
+    <t>bhakti@gmail.com</t>
+  </si>
+  <si>
+    <t>deepti@gmail.com</t>
   </si>
   <si>
     <t>rakshita@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Siddharth </t>
-  </si>
-  <si>
-    <t>siddharthtayade2602@gmail.com</t>
+    <t>siddharth@gmail.com</t>
+  </si>
+  <si>
+    <t>tanvi@gmail.com</t>
+  </si>
+  <si>
+    <t>rajveer@gmail.com</t>
+  </si>
+  <si>
+    <t>komal@gmail.com</t>
   </si>
   <si>
     <t>rimjhim@gmail.com</t>
   </si>
   <si>
-    <t>komal@gmail.com</t>
-  </si>
-  <si>
-    <t>Rajveer</t>
-  </si>
-  <si>
-    <t>rakjveer@gmail.com</t>
-  </si>
-  <si>
-    <t>Tanvi</t>
-  </si>
-  <si>
-    <t>tanvi@gmail.com</t>
-  </si>
-  <si>
-    <t>Pravin</t>
-  </si>
-  <si>
-    <t>pravin@gmail.com</t>
-  </si>
-  <si>
-    <t>Yash</t>
-  </si>
-  <si>
     <t>yash@gmail.com</t>
   </si>
   <si>
-    <t>Mayur</t>
-  </si>
-  <si>
-    <t>mayur@gmail.com</t>
+    <t>aditi@gmail.com</t>
+  </si>
+  <si>
+    <t>anushka@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -181,21 +151,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -510,351 +470,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64756EEA-2FCD-41EE-BD1B-2439E6CEC939}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3984086-995B-416C-B2AA-06795BA65228}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1">
-        <v>45839</v>
-      </c>
-      <c r="E1" s="1">
-        <v>45847</v>
-      </c>
-      <c r="F1" s="1">
-        <v>45856</v>
-      </c>
-      <c r="G1" s="1">
-        <v>45861</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B4">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F348D943-D9B1-4B08-B893-AC13C711CBFB}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>89</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>87</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>85</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="B5">
         <v>99</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>76</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>74</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B8">
+        <v>85</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>78</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>89</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
-        <v>86</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B9">
-        <v>78</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>75</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>45</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>78</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{156C3FBF-858A-41EB-AFA5-CD6B718578F5}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{86E5B299-8084-46F7-B6DC-FAA2EB0ACCA7}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{2AB15726-5E84-45B3-90C9-E2DAE6D4E07D}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{10A1FB2F-AAC9-48D1-8D01-683F2E683B17}"/>
-    <hyperlink ref="C12" r:id="rId5" xr:uid="{27E5AB93-E734-469B-8092-18830F47EF24}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8405F938-FC9C-499B-BC2D-D1981DE05C45}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{48AD6940-E904-417A-AC22-118E1B36E59A}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{C8C9D3D0-E486-46A8-AA5C-C1CFF7725B37}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{467F1FBC-442A-4B2E-8490-864161D50506}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{98B5FD1E-CD4D-4DA5-9225-39C977C7E8BF}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{B81DCB66-0C2D-465A-95D4-4148EC1A83AF}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{FD409768-6572-4D1C-B1EC-43F889739CE0}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{E7FB20CB-F94F-4BD3-AF7B-D3AA4857502B}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{DFD6F5A5-E849-43B4-9E9D-51C702C7B52F}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{95C9D27F-1ADB-4EE6-A41F-57C7DDC15C04}"/>
+    <hyperlink ref="C4" r:id="rId11" xr:uid="{7FD0DFC0-A861-4A57-9690-0A2494138841}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Leaderboard.xlsx
+++ b/Leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepti\Desktop\Deepti\projectpersonal\leaderboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CB5E25D-A9E0-4307-BECC-B5033E0208D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD22341-AD6D-4A21-BF73-2FEEA7994F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E312E4D-B331-491F-9DB8-B3982B9B947D}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>

--- a/Leaderboard.xlsx
+++ b/Leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepti\Desktop\Deepti\projectpersonal\leaderboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD22341-AD6D-4A21-BF73-2FEEA7994F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1F62E2-0C64-4EBD-8F3D-A468D05FCF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E312E4D-B331-491F-9DB8-B3982B9B947D}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>85</v>
+        <v>785</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>

--- a/Leaderboard.xlsx
+++ b/Leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepti\Desktop\Deepti\projectpersonal\leaderboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1F62E2-0C64-4EBD-8F3D-A468D05FCF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0C2D85-B593-491C-A1A4-1818153077A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E312E4D-B331-491F-9DB8-B3982B9B947D}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>785</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
